--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -546,10 +546,10 @@
         <v>0.855982</v>
       </c>
       <c r="I2">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J2">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N2">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O2">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P2">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q2">
-        <v>0.9876905237033333</v>
+        <v>1.075769169321111</v>
       </c>
       <c r="R2">
-        <v>8.88921471333</v>
+        <v>9.68192252389</v>
       </c>
       <c r="S2">
-        <v>0.003502655083589217</v>
+        <v>0.003846009141066562</v>
       </c>
       <c r="T2">
-        <v>0.003564705181572058</v>
+        <v>0.003862005439838124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.855982</v>
       </c>
       <c r="I3">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J3">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>11.995387</v>
       </c>
       <c r="O3">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P3">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q3">
         <v>1.140870595003778</v>
@@ -638,10 +638,10 @@
         <v>10.267835355034</v>
       </c>
       <c r="S3">
-        <v>0.004045878838974986</v>
+        <v>0.004078754868879165</v>
       </c>
       <c r="T3">
-        <v>0.004117552233127129</v>
+        <v>0.004095719202323381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.855982</v>
       </c>
       <c r="I4">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J4">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N4">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O4">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P4">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q4">
-        <v>6.205095597162888</v>
+        <v>8.961407474337109</v>
       </c>
       <c r="R4">
-        <v>55.845860374466</v>
+        <v>80.652667269034</v>
       </c>
       <c r="S4">
-        <v>0.02200518190259348</v>
+        <v>0.03203815097701032</v>
       </c>
       <c r="T4">
-        <v>0.0223950072381178</v>
+        <v>0.03217140386755715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.855982</v>
       </c>
       <c r="I5">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J5">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N5">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O5">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P5">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q5">
-        <v>0.7795014349366667</v>
+        <v>0.219128396063</v>
       </c>
       <c r="R5">
-        <v>4.677008609620001</v>
+        <v>1.314770376378</v>
       </c>
       <c r="S5">
-        <v>0.002764352394015776</v>
+        <v>0.0007834113844863218</v>
       </c>
       <c r="T5">
-        <v>0.001875548894096176</v>
+        <v>0.0005244464963627654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.855982</v>
       </c>
       <c r="I6">
-        <v>0.05293626506635817</v>
+        <v>0.0630466474718978</v>
       </c>
       <c r="J6">
-        <v>0.05293626506635819</v>
+        <v>0.06304664747189781</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N6">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O6">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P6">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q6">
-        <v>5.813988861542889</v>
+        <v>6.237634136038</v>
       </c>
       <c r="R6">
-        <v>52.325899753886</v>
+        <v>56.13870722434201</v>
       </c>
       <c r="S6">
-        <v>0.02061819684718472</v>
+        <v>0.02230032110045542</v>
       </c>
       <c r="T6">
-        <v>0.02098345151944503</v>
+        <v>0.02239307246581638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H7">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I7">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J7">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N7">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O7">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P7">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q7">
-        <v>6.206231987585</v>
+        <v>12.26845777597444</v>
       </c>
       <c r="R7">
-        <v>55.856087888265</v>
+        <v>110.41611998377</v>
       </c>
       <c r="S7">
-        <v>0.02200921189335822</v>
+        <v>0.04386126884726003</v>
       </c>
       <c r="T7">
-        <v>0.02239910862081691</v>
+        <v>0.04404369638064493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H8">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I8">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J8">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>11.995387</v>
       </c>
       <c r="O8">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P8">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q8">
-        <v>7.168751152799667</v>
+        <v>13.01089780392911</v>
       </c>
       <c r="R8">
-        <v>64.518760375197</v>
+        <v>117.098080235362</v>
       </c>
       <c r="S8">
-        <v>0.02542260157988704</v>
+        <v>0.04651558467600733</v>
       </c>
       <c r="T8">
-        <v>0.02587296705446704</v>
+        <v>0.04670905202429474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H9">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I9">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J9">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N9">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O9">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P9">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q9">
-        <v>38.99021186995033</v>
+        <v>102.1991077152624</v>
       </c>
       <c r="R9">
-        <v>350.911906829553</v>
+        <v>919.7919694373619</v>
       </c>
       <c r="S9">
-        <v>0.1382713112447788</v>
+        <v>0.3653745744821765</v>
       </c>
       <c r="T9">
-        <v>0.1407208097555378</v>
+        <v>0.3668942382797847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H10">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I10">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J10">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N10">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O10">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P10">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q10">
-        <v>4.898059284535</v>
+        <v>2.499018889259</v>
       </c>
       <c r="R10">
-        <v>29.38835570721</v>
+        <v>14.994113335554</v>
       </c>
       <c r="S10">
-        <v>0.01737002820313683</v>
+        <v>0.008934304649996169</v>
       </c>
       <c r="T10">
-        <v>0.01178516069707238</v>
+        <v>0.005980976105166444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.792877</v>
+        <v>3.253975333333333</v>
       </c>
       <c r="H11">
-        <v>5.378631</v>
+        <v>9.761925999999999</v>
       </c>
       <c r="I11">
-        <v>0.3326292332200106</v>
+        <v>0.7190065996349845</v>
       </c>
       <c r="J11">
-        <v>0.3326292332200107</v>
+        <v>0.7190065996349846</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N11">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O11">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P11">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q11">
-        <v>36.53266157974033</v>
+        <v>71.136218811934</v>
       </c>
       <c r="R11">
-        <v>328.793954217663</v>
+        <v>640.225969307406</v>
       </c>
       <c r="S11">
-        <v>0.1295560802988497</v>
+        <v>0.2543208669795444</v>
       </c>
       <c r="T11">
-        <v>0.1318511870921166</v>
+        <v>0.2553786368450937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H12">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I12">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J12">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N12">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O12">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P12">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q12">
-        <v>11.46418497826</v>
+        <v>3.718840044913889</v>
       </c>
       <c r="R12">
-        <v>103.17766480434</v>
+        <v>33.46956040422501</v>
       </c>
       <c r="S12">
-        <v>0.04065553412697384</v>
+        <v>0.01329531763392071</v>
       </c>
       <c r="T12">
-        <v>0.0413757534508641</v>
+        <v>0.01335061544142307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H13">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I13">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J13">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.995387</v>
       </c>
       <c r="O13">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P13">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q13">
-        <v>13.24215553708133</v>
+        <v>3.943889986587223</v>
       </c>
       <c r="R13">
-        <v>119.179399833732</v>
+        <v>35.49500987928501</v>
       </c>
       <c r="S13">
-        <v>0.04696076584366293</v>
+        <v>0.01409989928354947</v>
       </c>
       <c r="T13">
-        <v>0.04779268336120579</v>
+        <v>0.01415854350235287</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H14">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I14">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J14">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N14">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O14">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P14">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q14">
-        <v>72.02292826191865</v>
+        <v>30.97880281825389</v>
       </c>
       <c r="R14">
-        <v>648.2063543572679</v>
+        <v>278.809225364285</v>
       </c>
       <c r="S14">
-        <v>0.2554155069400709</v>
+        <v>0.1107530892463595</v>
       </c>
       <c r="T14">
-        <v>0.2599402337126903</v>
+        <v>0.1112137328487215</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H15">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I15">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J15">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N15">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O15">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P15">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q15">
-        <v>9.04772135246</v>
+        <v>0.7575077233075</v>
       </c>
       <c r="R15">
-        <v>54.28632811476</v>
+        <v>4.545046339845</v>
       </c>
       <c r="S15">
-        <v>0.03208600915929369</v>
+        <v>0.002708184721549253</v>
       </c>
       <c r="T15">
-        <v>0.02176961198034928</v>
+        <v>0.001812965725090858</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.311812</v>
+        <v>0.9863516666666667</v>
       </c>
       <c r="H16">
-        <v>9.935435999999999</v>
+        <v>2.959055</v>
       </c>
       <c r="I16">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931175</v>
       </c>
       <c r="J16">
-        <v>0.6144345017136311</v>
+        <v>0.2179467528931176</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N16">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O16">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P16">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q16">
-        <v>67.48332819915866</v>
+        <v>21.562956321995</v>
       </c>
       <c r="R16">
-        <v>607.3499537924279</v>
+        <v>194.066606897955</v>
       </c>
       <c r="S16">
-        <v>0.2393166856436298</v>
+        <v>0.07709026200773862</v>
       </c>
       <c r="T16">
-        <v>0.2435562192085216</v>
+        <v>0.07741089537552927</v>
       </c>
     </row>
   </sheetData>
